--- a/medicine/Autisme/Cinq_Minarets_à_New_York/Cinq_Minarets_à_New_York.xlsx
+++ b/medicine/Autisme/Cinq_Minarets_à_New_York/Cinq_Minarets_à_New_York.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cinq_Minarets_%C3%A0_New_York</t>
+          <t>Cinq_Minarets_à_New_York</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cinq Minarets à New York (Five Minarets in New York en anglais, New York'ta Beş Minare en turc) est un film américano-turc réalisé par Mahsun Kırmızıgül et sorti en 2010.
-Il a été un très gros succès en Turquie, battant les précédents records du réalisateur Mahsun Kırmızıgül avec près de 800 000 spectateurs seulement trois jours après sa sortie en salle[1]. Il est également le plus gros succès de l'année 2010 au box-office turc, avec 31 496 595 TL de revenus[2].
+Il a été un très gros succès en Turquie, battant les précédents records du réalisateur Mahsun Kırmızıgül avec près de 800 000 spectateurs seulement trois jours après sa sortie en salle. Il est également le plus gros succès de l'année 2010 au box-office turc, avec 31 496 595 TL de revenus.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cinq_Minarets_%C3%A0_New_York</t>
+          <t>Cinq_Minarets_à_New_York</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -521,7 +535,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cinq_Minarets_%C3%A0_New_York</t>
+          <t>Cinq_Minarets_à_New_York</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +553,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Cinq Minarets à New York
 Titre anglais : Five Minarets in New York
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cinq_Minarets_%C3%A0_New_York</t>
+          <t>Cinq_Minarets_à_New_York</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Haluk Bilginer : Hadjı Gümüş
 Mahsun Kırmızıgül : Fırat
